--- a/data/case1/19/P1_1.xlsx
+++ b/data/case1/19/P1_1.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.32939649642965207</v>
+        <v>0.45114143204246204</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0099999995181931922</v>
+        <v>-0.0099999989407990597</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0089999995096068375</v>
+        <v>-0.0089999989204816444</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.011999999863139266</v>
+        <v>-0.011999999737678735</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.05611164090183518</v>
+        <v>-0.0059999989307222279</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0059999995065531664</v>
+        <v>-0.0059999988961259021</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.019999999409344937</v>
+        <v>-0.019999998720535928</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.01999999941147923</v>
+        <v>-0.019999998714102851</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.086312269591432234</v>
+        <v>-0.0059999988816459293</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0059999995099175862</v>
+        <v>-0.0059999988776908708</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0044999995206076449</v>
+        <v>-0.0044999988962821647</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0059999995091413183</v>
+        <v>-0.0059999988771664015</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0059999995055228794</v>
+        <v>-0.0059999988765184753</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.011999999462855016</v>
+        <v>-0.011999998802836309</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.016521562185550565</v>
+        <v>-0.0059999988787842184</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0059999995027699704</v>
+        <v>-0.0059999988821064498</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0059999995006183582</v>
+        <v>0.034714494024147946</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0089999994791645221</v>
+        <v>-0.0089999988527065256</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.0089999995247622699</v>
+        <v>-0.069572895868103668</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0089999995203857708</v>
+        <v>-0.030578415746029819</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0089999995196805571</v>
+        <v>-0.04273869237059813</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.008999999519152091</v>
+        <v>-0.0089999989133486835</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0089999995051321946</v>
+        <v>-0.0089999989119302626</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.041999999267142485</v>
+        <v>-0.041999998488987167</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.041999999263023113</v>
+        <v>-0.041999998481231593</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.005999999504386011</v>
+        <v>-0.0059999988940013793</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0059999995011383866</v>
+        <v>-0.0059999988894703371</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.019225667300108995</v>
+        <v>-0.0059999988705179419</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.011999999439574083</v>
+        <v>-0.01199999878373248</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.019999999380091449</v>
+        <v>-0.019999998678724928</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.014999999409706533</v>
+        <v>-0.014999998732578845</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.020999999366956956</v>
+        <v>-0.014377672160972743</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.0059999994711841254</v>
+        <v>-0.0059999988425225581</v>
       </c>
     </row>
   </sheetData>
